--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\languages\ruby\temp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3279656E-15C2-4D73-BBC9-ECAE7E2966EE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{E0AACE88-209E-4CBD-8926-012AB0313D9A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test_sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="その2" sheetId="2" r:id="rId2"/>
+    <sheet name="【メモ】TBL1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -38,8 +34,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -194,7 +190,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -388,23 +384,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6809D85-A7AB-4214-9D5A-32897AD23740}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -418,37 +414,37 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5">
       <c r="B8">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5">
       <c r="B9">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5">
       <c r="B10">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5">
       <c r="B11">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5">
       <c r="B12">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5">
       <c r="B13">
         <v>37</v>
       </c>
@@ -457,4 +453,30 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>